--- a/paxos.xlsx
+++ b/paxos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huzhi/Desktop/paxos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huzhi/work/code/go_code/paxos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC471E2-A557-D74B-BB6B-113D67AAE127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112DECB-38C2-F04A-8E66-AB61E57339A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="980" windowWidth="34680" windowHeight="21420" xr2:uid="{665C64AE-9031-B74B-9613-6093308D81DD}"/>
+    <workbookView xWindow="1160" yWindow="980" windowWidth="34680" windowHeight="21420" activeTab="2" xr2:uid="{665C64AE-9031-B74B-9613-6093308D81DD}"/>
   </bookViews>
   <sheets>
     <sheet name="主从半同步复制" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="38">
   <si>
     <t>master</t>
   </si>
@@ -128,61 +128,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>slave3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slave4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>a
-(rnd=1, deleted=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+(rnd=1)</t>
+  </si>
+  <si>
+    <t>a
+(rnd=1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c
+(rnd=1)</t>
+  </si>
+  <si>
+    <t>g
+(rnd=1)</t>
   </si>
   <si>
     <t>b
-(rnd=1, deleted=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c
-(rnd=1, deleted=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+(rnd=1)</t>
+  </si>
+  <si>
+    <t>e
+(rnd=1)</t>
   </si>
   <si>
     <t>d
-(rnd=1, deleted=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e
-(rnd=1, deleted=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+(rnd=1)</t>
   </si>
   <si>
     <t>f
-(rnd=1, deleted=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g
-(rnd=1, deleted=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+(rnd=1)</t>
   </si>
   <si>
     <t>a1
-(rnd=2, deleted=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+(rnd=2)</t>
   </si>
   <si>
     <t>b1
-(rnd=2, deleted=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+(rnd=2)</t>
   </si>
   <si>
     <t>e1
-(rnd=2, deleted=0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+(rnd=2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +241,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -284,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +328,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -633,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD51F7A2-D82A-1640-BA32-F4C6542EECDA}">
-  <dimension ref="F10:AA41"/>
+  <dimension ref="F10:AI47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H14" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="O10" workbookViewId="0">
+      <selection activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -842,7 +859,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="21:27" ht="21">
+    <row r="33" spans="21:35" ht="21">
       <c r="U33" s="3" t="s">
         <v>4</v>
       </c>
@@ -857,7 +874,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="35" spans="21:27" ht="21">
+    <row r="35" spans="21:35" ht="21">
       <c r="U35" s="2"/>
       <c r="V35" s="2" t="s">
         <v>7</v>
@@ -874,7 +891,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="21:27" ht="21">
+    <row r="36" spans="21:35" ht="21">
       <c r="U36" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,7 +908,7 @@
       </c>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="21:27" ht="21">
+    <row r="37" spans="21:35" ht="21">
       <c r="U37" s="2" t="s">
         <v>19</v>
       </c>
@@ -908,7 +925,7 @@
       </c>
       <c r="AA37" s="1"/>
     </row>
-    <row r="39" spans="21:27" ht="21">
+    <row r="39" spans="21:35" ht="21">
       <c r="U39" s="2" t="s">
         <v>19</v>
       </c>
@@ -929,7 +946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="21:27" ht="21">
+    <row r="40" spans="21:35" ht="21">
       <c r="U40" s="2"/>
       <c r="V40" s="2" t="s">
         <v>7</v>
@@ -944,7 +961,7 @@
       </c>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="21:27" ht="21">
+    <row r="41" spans="21:35" ht="21">
       <c r="U41" s="2" t="s">
         <v>1</v>
       </c>
@@ -960,6 +977,82 @@
         <v>12</v>
       </c>
       <c r="AA41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="21:35" ht="21">
+      <c r="AD43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI43" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="21:35" ht="21">
+      <c r="AD44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3"/>
+      <c r="AI44" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="21:35" ht="21">
+      <c r="AD45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="21:35" ht="21">
+      <c r="AD46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="21:35" ht="21">
+      <c r="AD47" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1250,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704CDBE4-588B-7148-AFF7-DC457737F308}">
   <dimension ref="B3:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1264,17 +1357,17 @@
         <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1285,18 +1378,18 @@
         <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="9"/>
@@ -1306,19 +1399,19 @@
         <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="9"/>
     </row>
@@ -1327,28 +1420,28 @@
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="60" customHeight="1">
@@ -1356,28 +1449,28 @@
         <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="60" customHeight="1">
@@ -1385,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="60" customHeight="1">
@@ -1414,28 +1507,28 @@
         <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="60" customHeight="1">
@@ -1443,28 +1536,28 @@
         <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="60" customHeight="1">
@@ -1473,19 +1566,19 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="60" customHeight="1">
@@ -1493,28 +1586,28 @@
         <v>20</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="60" customHeight="1">
@@ -1523,18 +1616,18 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J19" s="10"/>
     </row>
@@ -1544,21 +1637,19 @@
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>29</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
